--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924321A5-8CCE-400F-ABB2-4518F76FA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EA4C9B-46E0-4AA4-9717-77775058211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{AB8AE58F-3749-47DB-8907-E86CA9A02EC6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AA23912-6A21-41DC-9B29-FF5CAAA3CDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -92,13 +92,31 @@
     <t>Passenger Vehicle Motors</t>
   </si>
   <si>
+    <t>Market share_class_min</t>
+  </si>
+  <si>
     <t>ZEV</t>
   </si>
   <si>
-    <t>Market share new_min</t>
-  </si>
-  <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Plug-in Hybrid</t>
+  </si>
+  <si>
+    <t>Market share_class</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>BEV 500</t>
+  </si>
+  <si>
+    <t>BEV 800</t>
+  </si>
+  <si>
+    <t>Fuel Cell 650</t>
   </si>
 </sst>
 </file>
@@ -469,21 +487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EDB08F-680D-4C5E-B6BD-6C9DFCC7DD71}">
-  <dimension ref="A1:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19832120-FA71-4AC7-85B1-D0C198F4F826}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X3"/>
+      <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -573,10 +591,10 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
@@ -614,6 +632,136 @@
       </c>
       <c r="W3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04EA4C9B-46E0-4AA4-9717-77775058211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B691C9-6D48-4D96-9501-78B3AAB84549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AA23912-6A21-41DC-9B29-FF5CAAA3CDBF}"/>
+    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{612CF98E-9169-4AB8-BB4F-011E4961C634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,21 +487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19832120-FA71-4AC7-85B1-D0C198F4F826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D52F90-7D1D-4CED-9412-EE515F0C6F22}">
   <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,19 +622,19 @@
         <v>0.6</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -660,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B691C9-6D48-4D96-9501-78B3AAB84549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E02BE5-2C3D-4F3A-A934-D6562428CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="3060" windowWidth="17250" windowHeight="8865" xr2:uid="{612CF98E-9169-4AB8-BB4F-011E4961C634}"/>
+    <workbookView xWindow="31920" yWindow="675" windowWidth="17250" windowHeight="8865" xr2:uid="{612CF98E-9169-4AB8-BB4F-011E4961C634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D52F90-7D1D-4CED-9412-EE515F0C6F22}">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,16 +622,16 @@
         <v>0.6</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E02BE5-2C3D-4F3A-A934-D6562428CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA22FA1E-2693-4AA8-9D97-B1188A99987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="675" windowWidth="17250" windowHeight="8865" xr2:uid="{612CF98E-9169-4AB8-BB4F-011E4961C634}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C80FA760-1E72-4791-9E95-4B3013A83019}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Market share_class</t>
-  </si>
-  <si>
-    <t>E85</t>
   </si>
   <si>
     <t>BEV 500</t>
@@ -487,21 +484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D52F90-7D1D-4CED-9412-EE515F0C6F22}">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCB6BAF-D244-4E4E-99B5-56E4694B3E4E}">
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,19 +619,19 @@
         <v>0.6</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -660,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -686,7 +683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -712,7 +709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -735,32 +732,6 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
+++ b/csv/policies/reference/Ref_LDV ZEV/formula_Ref_LDV ZEV_ON.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_LDV ZEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA22FA1E-2693-4AA8-9D97-B1188A99987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3AC47F6-A8C5-450A-9017-DCBDAF0490C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C80FA760-1E72-4791-9E95-4B3013A83019}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4AA720D-8671-4FF1-BCE2-3C22F4C46ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCB6BAF-D244-4E4E-99B5-56E4694B3E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DE192-F506-42CB-A8D4-C0EBE4E7C157}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X8"/>
+      <selection sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,16 +619,16 @@
         <v>0.6</v>
       </c>
       <c r="T3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
